--- a/database/data_mh.xlsx
+++ b/database/data_mh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\DangKyHocPhan\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2501AFB3-E453-4BBC-8CF0-D14D00F136D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1FC903-7D26-44A9-9E1F-1FECDB089219}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9684" xr2:uid="{D16252FC-BA41-43F5-A403-8637703FCADC}"/>
   </bookViews>
@@ -132,7 +132,7 @@
     <t>Kỹ thuật chế tạo vô tuyến</t>
   </si>
   <si>
-    <t>VTĐ</t>
+    <t>VTDD</t>
   </si>
 </sst>
 </file>
@@ -176,9 +176,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,32 +504,33 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.796875" style="1"/>
     <col min="2" max="2" width="39.19921875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="8.796875" style="1"/>
-    <col min="5" max="5" width="13.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.796875" style="1"/>
+    <col min="4" max="4" width="13.09765625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.69921875" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -535,8 +544,7 @@
       <c r="C2" s="1">
         <v>3</v>
       </c>
-      <c r="D2" s="1">
-        <f>230000*C2</f>
+      <c r="D2" s="5">
         <v>690000</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -553,8 +561,7 @@
       <c r="C3" s="1">
         <v>3</v>
       </c>
-      <c r="D3" s="1">
-        <f t="shared" ref="D3:D13" si="0">230000*C3</f>
+      <c r="D3" s="5">
         <v>690000</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -571,8 +578,7 @@
       <c r="C4" s="1">
         <v>3</v>
       </c>
-      <c r="D4" s="1">
-        <f t="shared" si="0"/>
+      <c r="D4" s="5">
         <v>690000</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -589,8 +595,7 @@
       <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="1">
-        <f t="shared" si="0"/>
+      <c r="D5" s="5">
         <v>460000</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -607,8 +612,7 @@
       <c r="C6" s="1">
         <v>3</v>
       </c>
-      <c r="D6" s="1">
-        <f t="shared" si="0"/>
+      <c r="D6" s="5">
         <v>690000</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -625,8 +629,7 @@
       <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="1">
-        <f t="shared" si="0"/>
+      <c r="D7" s="5">
         <v>460000</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -643,8 +646,7 @@
       <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="1">
-        <f t="shared" si="0"/>
+      <c r="D8" s="5">
         <v>690000</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -661,8 +663,7 @@
       <c r="C9" s="1">
         <v>3</v>
       </c>
-      <c r="D9" s="1">
-        <f t="shared" si="0"/>
+      <c r="D9" s="5">
         <v>690000</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -679,8 +680,7 @@
       <c r="C10" s="1">
         <v>3</v>
       </c>
-      <c r="D10" s="1">
-        <f t="shared" si="0"/>
+      <c r="D10" s="5">
         <v>690000</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -697,8 +697,7 @@
       <c r="C11" s="1">
         <v>2</v>
       </c>
-      <c r="D11" s="1">
-        <f t="shared" si="0"/>
+      <c r="D11" s="5">
         <v>460000</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -715,8 +714,7 @@
       <c r="C12" s="1">
         <v>2</v>
       </c>
-      <c r="D12" s="1">
-        <f t="shared" si="0"/>
+      <c r="D12" s="5">
         <v>460000</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -733,8 +731,7 @@
       <c r="C13" s="1">
         <v>2</v>
       </c>
-      <c r="D13" s="1">
-        <f t="shared" si="0"/>
+      <c r="D13" s="5">
         <v>460000</v>
       </c>
       <c r="E13" s="1" t="s">

--- a/database/data_mh.xlsx
+++ b/database/data_mh.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\DangKyHocPhan\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1FC903-7D26-44A9-9E1F-1FECDB089219}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2710DDEF-0F0B-4647-8B8B-134DCF7A65B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9684" xr2:uid="{D16252FC-BA41-43F5-A403-8637703FCADC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9684" activeTab="1" xr2:uid="{D16252FC-BA41-43F5-A403-8637703FCADC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>mamh</t>
   </si>
@@ -133,6 +134,12 @@
   </si>
   <si>
     <t>VTDD</t>
+  </si>
+  <si>
+    <t>MH013</t>
+  </si>
+  <si>
+    <t>MH014</t>
   </si>
 </sst>
 </file>
@@ -503,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3D9FBA-B909-4957-AC90-DC50813E9F97}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -742,4 +749,76 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031D01B5-FCF2-47E3-85A3-A6FBF8DE3358}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.796875" customWidth="1"/>
+    <col min="2" max="2" width="43.59765625" customWidth="1"/>
+    <col min="4" max="4" width="19.8984375" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5">
+        <v>690000</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5">
+        <v>690000</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>